--- a/mbs-EP-v.1.0.3 - changable version/Excel Files/simple pendulum/simple_pendulum.xlsx
+++ b/mbs-EP-v.1.0.3 - changable version/Excel Files/simple pendulum/simple_pendulum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\simple pendulum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.3 - changable version\Excel Files\simple pendulum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFE296F-FD84-49C0-AFBD-C2E6BE5C4652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459D912-3168-4D3C-9A02-F5D277ACCAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="251">
   <si>
     <t>Mass</t>
   </si>
@@ -1261,18 +1261,80 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1282,12 +1344,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1297,46 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1357,7 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,7 +1383,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,15 +1401,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1402,83 +1416,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,44 +1932,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="J2" s="64" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="J2" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="41">
         <v>10</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="71" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="79"/>
       <c r="P3" s="37" t="s">
         <v>156</v>
       </c>
@@ -1978,10 +1978,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1994,14 +1994,14 @@
       <c r="K4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="94"/>
       <c r="M4" s="36" t="s">
         <v>127</v>
       </c>
       <c r="N4" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="80"/>
       <c r="P4" s="37" t="s">
         <v>157</v>
       </c>
@@ -2010,10 +2010,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="41" t="s">
         <v>81</v>
       </c>
@@ -2026,14 +2026,14 @@
       <c r="K5" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="74"/>
+      <c r="L5" s="94"/>
       <c r="M5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="86"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="37" t="s">
         <v>158</v>
       </c>
@@ -2042,10 +2042,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="41" t="s">
         <v>3</v>
       </c>
@@ -2058,14 +2058,14 @@
       <c r="K6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="74"/>
+      <c r="L6" s="94"/>
       <c r="M6" s="37" t="s">
         <v>129</v>
       </c>
       <c r="N6" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="86"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="37" t="s">
         <v>162</v>
       </c>
@@ -2074,10 +2074,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="41">
         <v>-9806.65</v>
       </c>
@@ -2090,14 +2090,14 @@
       <c r="K7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="74"/>
+      <c r="L7" s="94"/>
       <c r="M7" s="37" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="86"/>
+      <c r="O7" s="80"/>
       <c r="P7" s="37" t="s">
         <v>161</v>
       </c>
@@ -2106,10 +2106,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="41" t="s">
         <v>235</v>
       </c>
@@ -2122,14 +2122,14 @@
       <c r="K8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="74"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="86"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="37" t="s">
         <v>165</v>
       </c>
@@ -2138,10 +2138,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="41"/>
       <c r="E9" s="42" t="s">
         <v>120</v>
@@ -2152,14 +2152,14 @@
       <c r="K9" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="74"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="37" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="86"/>
+      <c r="O9" s="80"/>
       <c r="P9" s="37" t="s">
         <v>166</v>
       </c>
@@ -2174,14 +2174,14 @@
       <c r="K10" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="74"/>
+      <c r="L10" s="94"/>
       <c r="M10" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="86"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="40" t="s">
         <v>167</v>
       </c>
@@ -2192,14 +2192,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="44"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="74"/>
+      <c r="L11" s="94"/>
       <c r="M11" s="37" t="s">
         <v>131</v>
       </c>
       <c r="N11" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="86"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="40" t="s">
         <v>168</v>
       </c>
@@ -2208,25 +2208,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
       <c r="J12" s="46"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="74"/>
+      <c r="L12" s="94"/>
       <c r="M12" s="37" t="s">
         <v>132</v>
       </c>
       <c r="N12" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="O12" s="86"/>
+      <c r="O12" s="80"/>
       <c r="P12" s="37" t="s">
         <v>173</v>
       </c>
@@ -2235,29 +2235,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="56" t="s">
         <v>234</v>
       </c>
       <c r="E13" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
       <c r="J13" s="46"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="74"/>
+      <c r="L13" s="94"/>
       <c r="M13" s="37" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="86"/>
+      <c r="O13" s="80"/>
       <c r="P13" s="40" t="s">
         <v>174</v>
       </c>
@@ -2266,27 +2266,27 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
       <c r="J14" s="48"/>
       <c r="K14" s="49"/>
-      <c r="L14" s="74"/>
+      <c r="L14" s="94"/>
       <c r="M14" s="37" t="s">
         <v>133</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="O14" s="86"/>
+      <c r="O14" s="80"/>
       <c r="P14" s="40" t="s">
         <v>175</v>
       </c>
@@ -2295,29 +2295,29 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="J15" s="71" t="s">
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="J15" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="74"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="94"/>
       <c r="M15" s="37" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="86"/>
+      <c r="O15" s="80"/>
       <c r="P15" s="40" t="s">
         <v>176</v>
       </c>
@@ -2326,31 +2326,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
       <c r="J16" s="37" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="74"/>
+      <c r="L16" s="94"/>
       <c r="M16" s="37" t="s">
         <v>134</v>
       </c>
       <c r="N16" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="O16" s="86"/>
+      <c r="O16" s="80"/>
       <c r="P16" s="37" t="s">
         <v>181</v>
       </c>
@@ -2359,29 +2359,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
       <c r="J17" s="37" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="74"/>
-      <c r="M17" s="71" t="s">
+      <c r="L17" s="94"/>
+      <c r="M17" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="N17" s="72"/>
-      <c r="O17" s="86"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="80"/>
       <c r="P17" s="40" t="s">
         <v>182</v>
       </c>
@@ -2390,31 +2390,31 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
       <c r="J18" s="37" t="s">
         <v>94</v>
       </c>
       <c r="K18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="74"/>
+      <c r="L18" s="94"/>
       <c r="M18" s="43" t="s">
         <v>155</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="O18" s="86"/>
+      <c r="O18" s="80"/>
       <c r="P18" s="40" t="s">
         <v>183</v>
       </c>
@@ -2423,33 +2423,33 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="56" t="s">
         <v>234</v>
       </c>
       <c r="E19" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
       <c r="J19" s="37" t="s">
         <v>95</v>
       </c>
       <c r="K19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="74"/>
+      <c r="L19" s="94"/>
       <c r="M19" s="38" t="s">
         <v>147</v>
       </c>
       <c r="N19" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="86"/>
+      <c r="O19" s="80"/>
       <c r="P19" s="40" t="s">
         <v>184</v>
       </c>
@@ -2458,33 +2458,31 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="56" t="s">
-        <v>234</v>
-      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
       <c r="J20" s="37" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="74"/>
+      <c r="L20" s="94"/>
       <c r="M20" s="38" t="s">
         <v>148</v>
       </c>
       <c r="N20" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="86"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="37" t="s">
         <v>189</v>
       </c>
@@ -2493,31 +2491,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="56"/>
       <c r="E21" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
       <c r="J21" s="37" t="s">
         <v>96</v>
       </c>
       <c r="K21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="74"/>
+      <c r="L21" s="94"/>
       <c r="M21" s="38" t="s">
         <v>149</v>
       </c>
       <c r="N21" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="86"/>
+      <c r="O21" s="80"/>
       <c r="P21" s="40" t="s">
         <v>190</v>
       </c>
@@ -2526,18 +2524,18 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="57">
         <v>2</v>
       </c>
@@ -2547,14 +2545,14 @@
       <c r="K22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="75"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="38" t="s">
         <v>150</v>
       </c>
       <c r="N22" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="O22" s="86"/>
+      <c r="O22" s="80"/>
       <c r="P22" s="40" t="s">
         <v>191</v>
       </c>
@@ -2563,19 +2561,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="56"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="57"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="86"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="80"/>
       <c r="P23" s="40" t="s">
         <v>192</v>
       </c>
@@ -2584,19 +2582,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="56"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="57"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="86"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="80"/>
       <c r="P24" s="27" t="s">
         <v>198</v>
       </c>
@@ -2605,19 +2603,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="56"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="57"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="86"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="80"/>
       <c r="P25" s="27" t="s">
         <v>202</v>
       </c>
@@ -2626,19 +2624,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="56"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="57"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="86"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="80"/>
       <c r="P26" s="27" t="s">
         <v>203</v>
       </c>
@@ -2647,19 +2645,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="56"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="57"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="86"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="80"/>
       <c r="P27" s="27" t="s">
         <v>204</v>
       </c>
@@ -2668,19 +2666,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="56"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="57"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="86"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="80"/>
       <c r="P28" s="27" t="s">
         <v>206</v>
       </c>
@@ -2689,19 +2687,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="56"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="57"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="86"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="80"/>
       <c r="P29" s="27" t="s">
         <v>205</v>
       </c>
@@ -2710,12 +2708,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="86"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="80"/>
       <c r="P30" s="27" t="s">
         <v>207</v>
       </c>
@@ -2724,12 +2722,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="86"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="80"/>
       <c r="P31" s="27" t="s">
         <v>208</v>
       </c>
@@ -2738,12 +2736,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="86"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="80"/>
       <c r="P32" s="27" t="s">
         <v>209</v>
       </c>
@@ -2752,12 +2750,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="79"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="86"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="27" t="s">
         <v>210</v>
       </c>
@@ -2766,12 +2764,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="79"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="86"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="80"/>
       <c r="P34" s="27" t="s">
         <v>211</v>
       </c>
@@ -2780,12 +2778,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="79"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="86"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="80"/>
       <c r="P35" s="27" t="s">
         <v>212</v>
       </c>
@@ -2794,12 +2792,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="79"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="86"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="80"/>
       <c r="P36" s="27" t="s">
         <v>221</v>
       </c>
@@ -2808,12 +2806,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="79"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="86"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="80"/>
       <c r="P37" s="27" t="s">
         <v>222</v>
       </c>
@@ -2822,12 +2820,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="82"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="86"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="80"/>
       <c r="P38" s="27" t="s">
         <v>223</v>
       </c>
@@ -2845,6 +2843,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J23:N38"/>
     <mergeCell ref="O3:O38"/>
     <mergeCell ref="B18:C18"/>
@@ -2860,21 +2873,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F13:H21"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2906,32 +2904,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
       <c r="S1" s="53" t="s">
         <v>34</v>
       </c>
@@ -2955,8 +2953,8 @@
       <c r="AK1" s="53"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="96" t="s">
         <v>74</v>
       </c>
@@ -2972,52 +2970,52 @@
       </c>
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="88" t="s">
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="87" t="s">
         <v>83</v>
       </c>
       <c r="S2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="93" t="s">
+      <c r="T2" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="94"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="90" t="s">
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="90" t="s">
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="90" t="s">
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="90" t="s">
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="90" t="s">
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="92"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="99"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3071,7 +3069,7 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="88"/>
+      <c r="R3" s="87"/>
       <c r="S3" s="54"/>
       <c r="T3" s="55" t="s">
         <v>61</v>
@@ -6428,6 +6426,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O2:Q2"/>
@@ -6439,12 +6443,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6475,16 +6473,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6515,11 +6513,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6575,19 +6573,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6612,16 +6610,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="100" t="s">
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -6657,22 +6655,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6697,21 +6695,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="99" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99" t="s">
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -6742,19 +6740,19 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -6779,16 +6777,16 @@
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99" t="s">
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -6858,19 +6856,19 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -6895,16 +6893,16 @@
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99" t="s">
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
     </row>
     <row r="17" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -6941,19 +6939,19 @@
       <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
@@ -6978,36 +6976,36 @@
       <c r="E20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99" t="s">
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
     </row>
     <row r="21" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
     </row>
     <row r="24" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
@@ -7025,44 +7023,44 @@
       <c r="E24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99" t="s">
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99" t="s">
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
     </row>
     <row r="25" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
     </row>
     <row r="28" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
@@ -7080,26 +7078,26 @@
       <c r="E28" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="100" t="s">
+      <c r="F28" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="100" t="s">
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="99" t="s">
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99" t="s">
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
     </row>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -7122,14 +7120,14 @@
     </row>
     <row r="30" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7203,12 +7201,12 @@
       <c r="X34" s="10"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -7280,15 +7278,15 @@
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="105"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="108"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -7308,11 +7306,11 @@
       <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="99" t="s">
+      <c r="E40" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="10"/>
@@ -7380,6 +7378,21 @@
     <row r="59" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="E40:G40"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="F20:H20"/>
@@ -7396,21 +7409,6 @@
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7431,7 +7429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -7447,21 +7445,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="107"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -7479,11 +7477,11 @@
       <c r="E2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="61" t="s">
         <v>240</v>
       </c>
@@ -7560,58 +7558,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="108" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="110"/>
-      <c r="AB2" s="116" t="s">
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="116"/>
+      <c r="AB2" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="118"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="127"/>
     </row>
     <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -7629,17 +7627,17 @@
       <c r="E3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="119" t="s">
+      <c r="G3" s="136"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="122" t="s">
+      <c r="J3" s="123"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="64" t="s">
         <v>244</v>
       </c>
       <c r="M3" s="32" t="s">
@@ -7657,16 +7655,16 @@
       <c r="Q3" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="115" t="s">
+      <c r="R3" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="115"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="125"/>
+      <c r="S3" s="134"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="130"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="39"/>
@@ -7680,18 +7678,18 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
-      <c r="M4" s="126"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="33"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="125"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="130"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
@@ -7706,83 +7704,83 @@
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
-      <c r="M5" s="126"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="39"/>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="124"/>
-      <c r="AF5" s="124"/>
-      <c r="AG5" s="125"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="130"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="125"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="130"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="124"/>
-      <c r="AG7" s="125"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="130"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="127" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="125"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="129"/>
+      <c r="AE8" s="129"/>
+      <c r="AF8" s="129"/>
+      <c r="AG8" s="130"/>
     </row>
     <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
@@ -7800,16 +7798,16 @@
       <c r="E9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="119" t="s">
+      <c r="G9" s="136"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="124"/>
       <c r="L9" s="32" t="s">
         <v>111</v>
       </c>
@@ -7825,16 +7823,16 @@
       <c r="P9" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="112" t="s">
+      <c r="Q9" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="R9" s="114"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="124"/>
-      <c r="AF9" s="124"/>
-      <c r="AG9" s="125"/>
+      <c r="R9" s="121"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="130"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -7848,14 +7846,14 @@
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="128"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="24"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="125"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="130"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
@@ -7869,88 +7867,88 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="128"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="125"/>
+      <c r="L11" s="66"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="130"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="39"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="125"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="130"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="130"/>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="130"/>
-      <c r="AG13" s="131"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="132"/>
+      <c r="AF13" s="132"/>
+      <c r="AG13" s="133"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="108" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
     </row>
     <row r="15" spans="1:33" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
@@ -7968,26 +7966,26 @@
       <c r="E15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="119" t="s">
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="133" t="s">
+      <c r="J15" s="123"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="117" t="s">
         <v>249</v>
       </c>
-      <c r="M15" s="134"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="133" t="s">
+      <c r="M15" s="118"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="135"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="119"/>
       <c r="R15" s="32" t="s">
         <v>73</v>
       </c>
@@ -8006,10 +8004,10 @@
       <c r="W15" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="X15" s="112" t="s">
+      <c r="X15" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="Y15" s="114"/>
+      <c r="Y15" s="121"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -8056,46 +8054,46 @@
       <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="108" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="110"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="116"/>
     </row>
     <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
@@ -8113,16 +8111,16 @@
       <c r="E20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="133" t="s">
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="134"/>
-      <c r="K20" s="135"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="119"/>
       <c r="L20" s="62" t="s">
         <v>112</v>
       </c>
@@ -8135,10 +8133,10 @@
       <c r="O20" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="112" t="s">
+      <c r="P20" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="114"/>
+      <c r="Q20" s="121"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -8187,16 +8185,9 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A18:Q18"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="AB2:AG13"/>
@@ -8210,9 +8201,16 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8235,21 +8233,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="F1" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="I1" s="68" t="s">
+      <c r="G1" s="92"/>
+      <c r="I1" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -8267,12 +8265,12 @@
       <c r="G2" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="137" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
@@ -8284,10 +8282,10 @@
       <c r="G3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -8299,10 +8297,10 @@
       <c r="G4" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
@@ -8314,10 +8312,10 @@
       <c r="G5" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
@@ -8329,10 +8327,10 @@
       <c r="G6" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>

--- a/mbs-EP-v.1.0.3 - changable version/Excel Files/simple pendulum/simple_pendulum.xlsx
+++ b/mbs-EP-v.1.0.3 - changable version/Excel Files/simple pendulum/simple_pendulum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.3 - changable version\Excel Files\simple pendulum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459D912-3168-4D3C-9A02-F5D277ACCAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDA1374-CED7-47AD-804A-E0DB33D6EE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="251">
   <si>
     <t>Mass</t>
   </si>
@@ -1092,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1275,6 +1275,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1912,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,44 +1935,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="J2" s="89" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="J2" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="41">
         <v>10</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="84" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="79"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="37" t="s">
         <v>156</v>
       </c>
@@ -1978,10 +1981,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1994,14 +1997,14 @@
       <c r="K4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="94"/>
+      <c r="L4" s="95"/>
       <c r="M4" s="36" t="s">
         <v>127</v>
       </c>
       <c r="N4" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="80"/>
+      <c r="O4" s="81"/>
       <c r="P4" s="37" t="s">
         <v>157</v>
       </c>
@@ -2010,10 +2013,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="83"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="41" t="s">
         <v>81</v>
       </c>
@@ -2026,14 +2029,14 @@
       <c r="K5" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="94"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="80"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="37" t="s">
         <v>158</v>
       </c>
@@ -2042,10 +2045,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="41" t="s">
         <v>3</v>
       </c>
@@ -2058,14 +2061,14 @@
       <c r="K6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="94"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="37" t="s">
         <v>129</v>
       </c>
       <c r="N6" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="80"/>
+      <c r="O6" s="81"/>
       <c r="P6" s="37" t="s">
         <v>162</v>
       </c>
@@ -2074,12 +2077,12 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="41">
-        <v>-9806.65</v>
+        <v>-10000</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>106</v>
@@ -2090,14 +2093,14 @@
       <c r="K7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="94"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="37" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="80"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="37" t="s">
         <v>161</v>
       </c>
@@ -2106,10 +2109,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="41" t="s">
         <v>235</v>
       </c>
@@ -2122,14 +2125,14 @@
       <c r="K8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="94"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="80"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="37" t="s">
         <v>165</v>
       </c>
@@ -2138,10 +2141,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="41"/>
       <c r="E9" s="42" t="s">
         <v>120</v>
@@ -2152,14 +2155,14 @@
       <c r="K9" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="94"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="37" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="80"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="37" t="s">
         <v>166</v>
       </c>
@@ -2174,14 +2177,14 @@
       <c r="K10" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="94"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="80"/>
+      <c r="O10" s="81"/>
       <c r="P10" s="40" t="s">
         <v>167</v>
       </c>
@@ -2192,14 +2195,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="44"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="94"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="37" t="s">
         <v>131</v>
       </c>
       <c r="N11" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="80"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="40" t="s">
         <v>168</v>
       </c>
@@ -2208,25 +2211,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
       <c r="J12" s="46"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="94"/>
+      <c r="L12" s="95"/>
       <c r="M12" s="37" t="s">
         <v>132</v>
       </c>
       <c r="N12" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="81"/>
       <c r="P12" s="37" t="s">
         <v>173</v>
       </c>
@@ -2235,29 +2238,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="56" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="70" t="s">
         <v>234</v>
       </c>
       <c r="E13" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
       <c r="J13" s="46"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="94"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="37" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="80"/>
+      <c r="O13" s="81"/>
       <c r="P13" s="40" t="s">
         <v>174</v>
       </c>
@@ -2266,27 +2269,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="56"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="70" t="s">
+        <v>234</v>
+      </c>
       <c r="E14" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
       <c r="J14" s="48"/>
       <c r="K14" s="49"/>
-      <c r="L14" s="94"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="37" t="s">
         <v>133</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="O14" s="80"/>
+      <c r="O14" s="81"/>
       <c r="P14" s="40" t="s">
         <v>175</v>
       </c>
@@ -2295,29 +2300,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="70" t="s">
+        <v>234</v>
+      </c>
       <c r="E15" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="J15" s="84" t="s">
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="J15" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="94"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="37" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="80"/>
+      <c r="O15" s="81"/>
       <c r="P15" s="40" t="s">
         <v>176</v>
       </c>
@@ -2326,31 +2333,33 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="70" t="s">
+        <v>234</v>
+      </c>
       <c r="E16" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="J16" s="37" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="94"/>
+      <c r="L16" s="95"/>
       <c r="M16" s="37" t="s">
         <v>134</v>
       </c>
       <c r="N16" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="O16" s="80"/>
+      <c r="O16" s="81"/>
       <c r="P16" s="37" t="s">
         <v>181</v>
       </c>
@@ -2359,29 +2368,31 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="70" t="s">
+        <v>234</v>
+      </c>
       <c r="E17" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
       <c r="J17" s="37" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="94"/>
-      <c r="M17" s="84" t="s">
+      <c r="L17" s="95"/>
+      <c r="M17" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="N17" s="85"/>
-      <c r="O17" s="80"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="81"/>
       <c r="P17" s="40" t="s">
         <v>182</v>
       </c>
@@ -2390,31 +2401,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="56"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="56" t="s">
+        <v>234</v>
+      </c>
       <c r="E18" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
       <c r="J18" s="37" t="s">
         <v>94</v>
       </c>
       <c r="K18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="94"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="43" t="s">
         <v>155</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="O18" s="80"/>
+      <c r="O18" s="81"/>
       <c r="P18" s="40" t="s">
         <v>183</v>
       </c>
@@ -2423,33 +2436,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="56" t="s">
-        <v>234</v>
-      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
       <c r="J19" s="37" t="s">
         <v>95</v>
       </c>
       <c r="K19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="94"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="38" t="s">
         <v>147</v>
       </c>
       <c r="N19" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="80"/>
+      <c r="O19" s="81"/>
       <c r="P19" s="40" t="s">
         <v>184</v>
       </c>
@@ -2458,31 +2469,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="56" t="s">
+        <v>234</v>
+      </c>
       <c r="E20" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
       <c r="J20" s="37" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="94"/>
+      <c r="L20" s="95"/>
       <c r="M20" s="38" t="s">
         <v>148</v>
       </c>
       <c r="N20" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="80"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="37" t="s">
         <v>189</v>
       </c>
@@ -2491,31 +2504,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="81"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="56"/>
       <c r="E21" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
       <c r="J21" s="37" t="s">
         <v>96</v>
       </c>
       <c r="K21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="94"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="38" t="s">
         <v>149</v>
       </c>
       <c r="N21" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="80"/>
+      <c r="O21" s="81"/>
       <c r="P21" s="40" t="s">
         <v>190</v>
       </c>
@@ -2524,35 +2537,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="87" t="s">
+      <c r="C22" s="87"/>
+      <c r="D22" s="56">
+        <v>1</v>
+      </c>
+      <c r="E22" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="57">
-        <v>2</v>
-      </c>
+      <c r="G22" s="88"/>
+      <c r="H22" s="57"/>
       <c r="J22" s="27" t="s">
         <v>107</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="95"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="38" t="s">
         <v>150</v>
       </c>
       <c r="N22" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="O22" s="80"/>
+      <c r="O22" s="81"/>
       <c r="P22" s="40" t="s">
         <v>191</v>
       </c>
@@ -2561,19 +2574,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="56">
+        <v>2</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="57"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="80"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="81"/>
       <c r="P23" s="40" t="s">
         <v>192</v>
       </c>
@@ -2582,19 +2597,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="56"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="57"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="80"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="81"/>
       <c r="P24" s="27" t="s">
         <v>198</v>
       </c>
@@ -2603,19 +2618,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="56"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
       <c r="H25" s="57"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="80"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="81"/>
       <c r="P25" s="27" t="s">
         <v>202</v>
       </c>
@@ -2624,19 +2639,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="56"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="57"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="80"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="81"/>
       <c r="P26" s="27" t="s">
         <v>203</v>
       </c>
@@ -2645,19 +2660,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="56"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="57"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="80"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="81"/>
       <c r="P27" s="27" t="s">
         <v>204</v>
       </c>
@@ -2666,19 +2681,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="56"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="57"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="80"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="81"/>
       <c r="P28" s="27" t="s">
         <v>206</v>
       </c>
@@ -2687,19 +2702,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="56"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
       <c r="H29" s="57"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="80"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="81"/>
       <c r="P29" s="27" t="s">
         <v>205</v>
       </c>
@@ -2708,12 +2723,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="80"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="81"/>
       <c r="P30" s="27" t="s">
         <v>207</v>
       </c>
@@ -2722,12 +2737,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="80"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="81"/>
       <c r="P31" s="27" t="s">
         <v>208</v>
       </c>
@@ -2736,12 +2751,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="80"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="81"/>
       <c r="P32" s="27" t="s">
         <v>209</v>
       </c>
@@ -2750,12 +2765,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="73"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="80"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="81"/>
       <c r="P33" s="27" t="s">
         <v>210</v>
       </c>
@@ -2764,12 +2779,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="73"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="80"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="81"/>
       <c r="P34" s="27" t="s">
         <v>211</v>
       </c>
@@ -2778,12 +2793,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="73"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="80"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="81"/>
       <c r="P35" s="27" t="s">
         <v>212</v>
       </c>
@@ -2792,12 +2807,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="73"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="80"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="81"/>
       <c r="P36" s="27" t="s">
         <v>221</v>
       </c>
@@ -2806,12 +2821,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="80"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="81"/>
       <c r="P37" s="27" t="s">
         <v>222</v>
       </c>
@@ -2820,12 +2835,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="76"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="80"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="81"/>
       <c r="P38" s="27" t="s">
         <v>223</v>
       </c>
@@ -2884,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,32 +2919,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="81" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81" t="s">
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
       <c r="S1" s="53" t="s">
         <v>34</v>
       </c>
@@ -2953,69 +2968,69 @@
       <c r="AK1" s="53"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="96" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96" t="s">
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="81" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81" t="s">
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="87" t="s">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="88" t="s">
         <v>83</v>
       </c>
       <c r="S2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="100" t="s">
+      <c r="T2" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="101"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="97" t="s">
+      <c r="U2" s="102"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="97" t="s">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="97" t="s">
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="97" t="s">
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="100"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3069,7 +3084,7 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="87"/>
+      <c r="R3" s="88"/>
       <c r="S3" s="54"/>
       <c r="T3" s="55" t="s">
         <v>61</v>
@@ -3247,7 +3262,7 @@
         <v>238</v>
       </c>
       <c r="C5" s="55">
-        <v>-974.85500000000002</v>
+        <v>-1000</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
@@ -3295,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="55">
-        <v>12.12</v>
+        <v>10</v>
       </c>
       <c r="T5" s="63">
-        <v>23110</v>
+        <v>0</v>
       </c>
       <c r="U5" s="63">
-        <v>219600</v>
+        <v>0</v>
       </c>
       <c r="V5" s="63">
-        <v>219600</v>
+        <v>0</v>
       </c>
       <c r="W5" s="53">
         <v>0</v>
@@ -6453,7 +6468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -6473,16 +6488,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6513,11 +6528,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6573,19 +6588,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6610,16 +6625,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="109" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -6655,22 +6670,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6695,21 +6710,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="103" t="s">
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103" t="s">
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -6740,19 +6755,19 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -6777,16 +6792,16 @@
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="103" t="s">
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -6856,19 +6871,19 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -6893,16 +6908,16 @@
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="103" t="s">
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
     </row>
     <row r="17" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -6939,19 +6954,19 @@
       <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
@@ -6976,36 +6991,36 @@
       <c r="E20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="103" t="s">
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
     </row>
     <row r="21" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
     </row>
     <row r="24" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
@@ -7023,44 +7038,44 @@
       <c r="E24" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="103" t="s">
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103" t="s">
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
     </row>
     <row r="25" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
     </row>
     <row r="28" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
@@ -7078,26 +7093,26 @@
       <c r="E28" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="109" t="s">
+      <c r="F28" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="109" t="s">
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="103" t="s">
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103" t="s">
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
     </row>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -7120,14 +7135,14 @@
     </row>
     <row r="30" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7201,12 +7216,12 @@
       <c r="X34" s="10"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -7278,15 +7293,15 @@
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="108"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="109"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -7306,11 +7321,11 @@
       <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="103" t="s">
+      <c r="E40" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="10"/>
@@ -7325,7 +7340,7 @@
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="39">
         <v>0</v>
@@ -7445,21 +7460,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="113"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -7477,11 +7492,11 @@
       <c r="E2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="61" t="s">
         <v>240</v>
       </c>
@@ -7558,58 +7573,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="114" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="116"/>
-      <c r="AB2" s="125" t="s">
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="117"/>
+      <c r="AB2" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="128"/>
     </row>
     <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -7627,16 +7642,16 @@
       <c r="E3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122" t="s">
+      <c r="G3" s="137"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="123"/>
-      <c r="K3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="125"/>
       <c r="L3" s="64" t="s">
         <v>244</v>
       </c>
@@ -7655,16 +7670,16 @@
       <c r="Q3" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="134"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="130"/>
+      <c r="S3" s="135"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="131"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="39"/>
@@ -7684,12 +7699,12 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="130"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="131"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
@@ -7711,76 +7726,76 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="130"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="131"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="130"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="131"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="130"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="131"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="135" t="s">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="129"/>
-      <c r="AD8" s="129"/>
-      <c r="AE8" s="129"/>
-      <c r="AF8" s="129"/>
-      <c r="AG8" s="130"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="130"/>
+      <c r="AF8" s="130"/>
+      <c r="AG8" s="131"/>
     </row>
     <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
@@ -7798,16 +7813,16 @@
       <c r="E9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122" t="s">
+      <c r="G9" s="137"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="125"/>
       <c r="L9" s="32" t="s">
         <v>111</v>
       </c>
@@ -7823,16 +7838,16 @@
       <c r="P9" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="120" t="s">
+      <c r="Q9" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="R9" s="121"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="130"/>
+      <c r="R9" s="122"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="131"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -7848,12 +7863,12 @@
       <c r="K10" s="39"/>
       <c r="L10" s="66"/>
       <c r="M10" s="24"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="130"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="131"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
@@ -7868,85 +7883,85 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
       <c r="L11" s="66"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="130"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="130"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="131"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="39"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="129"/>
-      <c r="AD12" s="129"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="130"/>
+      <c r="AB12" s="129"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="131"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="132"/>
-      <c r="AF13" s="132"/>
-      <c r="AG13" s="133"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="133"/>
+      <c r="AD13" s="133"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="133"/>
+      <c r="AG13" s="134"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="114" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="117"/>
       <c r="Z14" s="67"/>
       <c r="AA14" s="67"/>
     </row>
@@ -7966,26 +7981,26 @@
       <c r="E15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="122" t="s">
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="123" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="123"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="117" t="s">
+      <c r="J15" s="124"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="118" t="s">
         <v>249</v>
       </c>
-      <c r="M15" s="118"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="117" t="s">
+      <c r="M15" s="119"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="120"/>
       <c r="R15" s="32" t="s">
         <v>73</v>
       </c>
@@ -8004,10 +8019,10 @@
       <c r="W15" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="X15" s="120" t="s">
+      <c r="X15" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="Y15" s="121"/>
+      <c r="Y15" s="122"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -8054,25 +8069,25 @@
       <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
@@ -8086,14 +8101,14 @@
       <c r="I19" s="69"/>
       <c r="J19" s="69"/>
       <c r="K19" s="69"/>
-      <c r="L19" s="114" t="s">
+      <c r="L19" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
     </row>
     <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
@@ -8111,16 +8126,16 @@
       <c r="E20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="117" t="s">
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="118"/>
-      <c r="K20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="120"/>
       <c r="L20" s="62" t="s">
         <v>112</v>
       </c>
@@ -8133,10 +8148,10 @@
       <c r="O20" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="120" t="s">
+      <c r="P20" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="121"/>
+      <c r="Q20" s="122"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -8233,21 +8248,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="F1" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="I1" s="90" t="s">
+      <c r="G1" s="93"/>
+      <c r="I1" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -8265,12 +8280,12 @@
       <c r="G2" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="138" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
@@ -8282,10 +8297,10 @@
       <c r="G3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -8297,10 +8312,10 @@
       <c r="G4" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
@@ -8312,10 +8327,10 @@
       <c r="G5" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
@@ -8327,10 +8342,10 @@
       <c r="G6" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
